--- a/data/trans_media/Q23_2_2015-Provincia-trans_media.xlsx
+++ b/data/trans_media/Q23_2_2015-Provincia-trans_media.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,17; 19,9</t>
+          <t>16,21; 19,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,16; 21,12</t>
+          <t>17,28; 21,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,66; 19,86</t>
+          <t>16,67; 19,49</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,75; 18,26</t>
+          <t>15,61; 18,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,09; 16,5</t>
+          <t>14,1; 16,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,52; 17,43</t>
+          <t>15,48; 17,45</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,71; 19,38</t>
+          <t>17,66; 19,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,75; 19,0</t>
+          <t>16,85; 19,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,61; 19,04</t>
+          <t>17,62; 18,92</t>
         </is>
       </c>
     </row>
@@ -779,7 +779,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,42; 17,37</t>
+          <t>14,42; 17,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -789,7 +789,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,68; 22,83</t>
+          <t>15,43; 22,88</t>
         </is>
       </c>
     </row>
@@ -829,7 +829,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,28; 18,45</t>
+          <t>16,33; 18,46</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -839,7 +839,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,72; 19,19</t>
+          <t>16,78; 19,23</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,49; 17,32</t>
+          <t>15,67; 17,45</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>16,68; 19,26</t>
+          <t>16,72; 19,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>16,22; 17,73</t>
+          <t>16,26; 17,73</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>15,58; 17,85</t>
+          <t>15,53; 17,77</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>16,92; 19,11</t>
+          <t>16,95; 19,06</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>15,84; 17,7</t>
+          <t>15,91; 17,83</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>16,73; 17,78</t>
+          <t>16,72; 17,85</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>17,37; 19,03</t>
+          <t>17,37; 18,98</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>17,0; 17,88</t>
+          <t>16,98; 17,85</t>
         </is>
       </c>
     </row>

--- a/data/trans_media/Q23_2_2015-Provincia-trans_media.xlsx
+++ b/data/trans_media/Q23_2_2015-Provincia-trans_media.xlsx
@@ -522,17 +522,17 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,21; 19,92</t>
+          <t>16,13; 20,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,28; 21,44</t>
+          <t>17,21; 21,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,67; 19,49</t>
+          <t>16,75; 20,06</t>
         </is>
       </c>
     </row>
@@ -629,7 +629,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,61; 18,12</t>
+          <t>15,82; 18,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,48; 17,45</t>
+          <t>15,57; 17,46</t>
         </is>
       </c>
     </row>
@@ -679,7 +679,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,43; 17,4</t>
+          <t>15,41; 17,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -689,7 +689,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,99; 21,56</t>
+          <t>16,02; 21,67</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,66; 19,23</t>
+          <t>17,7; 19,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,85; 19,09</t>
+          <t>16,7; 18,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,62; 18,92</t>
+          <t>17,58; 18,92</t>
         </is>
       </c>
     </row>
@@ -779,7 +779,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,42; 17,58</t>
+          <t>14,42; 17,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -789,7 +789,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,43; 22,88</t>
+          <t>15,45; 22,82</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,33; 18,46</t>
+          <t>16,27; 18,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>16,0; 25,0</t>
+          <t>16,93; 25,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,78; 19,23</t>
+          <t>16,68; 19,19</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,67; 17,45</t>
+          <t>15,54; 17,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>16,72; 19,29</t>
+          <t>16,76; 19,26</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>16,26; 17,73</t>
+          <t>16,29; 17,79</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>15,53; 17,77</t>
+          <t>15,59; 17,91</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>16,95; 19,06</t>
+          <t>16,94; 19,13</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>15,91; 17,83</t>
+          <t>15,86; 17,85</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>16,72; 17,85</t>
+          <t>16,75; 17,88</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>17,37; 18,98</t>
+          <t>17,3; 18,91</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>16,98; 17,85</t>
+          <t>16,96; 17,84</t>
         </is>
       </c>
     </row>
